--- a/000.커리큐럼/KITA-FED212_시간표.xlsx
+++ b/000.커리큐럼/KITA-FED212_시간표.xlsx
@@ -313,987 +313,987 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1597,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
@@ -4802,5 +4802,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>